--- a/images/R3Efficiency - Latest.xlsx
+++ b/images/R3Efficiency - Latest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrakashKarri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kash\Venya\Arduino\R3-RCube\r3\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A58FF1-5128-4C8E-A6F7-49A98DE3DF54}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Both Metal and Motion detectors" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Trials</t>
   </si>
@@ -96,10 +97,6 @@
   </si>
   <si>
     <t>Worked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Efficiency of R3
-</t>
   </si>
   <si>
     <t>Type of Material</t>
@@ -157,13 +154,14 @@
 </t>
   </si>
   <si>
-    <t>Steel ear ring</t>
+    <t xml:space="preserve">Total Efficiency of R3 for 20 Trails
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -356,9 +354,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +422,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Efficiency in % for 20 Test Results</a:t>
+              <a:t>Efficiency </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -509,7 +504,7 @@
 </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Total Efficiency of R3
+                  <c:v>Total Efficiency of R3 for 20 Trails
 </c:v>
                 </c:pt>
               </c:strCache>
@@ -522,13 +517,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -754,9 +749,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data - Only with Metal Detector'!$A$2:$A$12</c:f>
+              <c:f>'Data - Only with Metal Detector'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Paper Towels</c:v>
                 </c:pt>
@@ -785,9 +780,6 @@
                   <c:v>Foil</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Steel ear ring</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>Magazine</c:v>
                 </c:pt>
               </c:strCache>
@@ -795,10 +787,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data - Only with Metal Detector'!$B$2:$B$12</c:f>
+              <c:f>'Data - Only with Metal Detector'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -827,9 +819,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -867,9 +856,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data - Only with Metal Detector'!$A$2:$A$12</c:f>
+              <c:f>'Data - Only with Metal Detector'!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Paper Towels</c:v>
                 </c:pt>
@@ -898,9 +887,6 @@
                   <c:v>Foil</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Steel ear ring</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>Magazine</c:v>
                 </c:pt>
               </c:strCache>
@@ -908,10 +894,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data - Only with Metal Detector'!$C$2:$C$12</c:f>
+              <c:f>'Data - Only with Metal Detector'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -940,9 +926,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1115,7 +1098,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1123,6 +1105,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1753,7 +1736,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1783,20 +1766,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A25:A26" insertRow="1" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A25:A26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A24:A25" insertRow="1" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A24:A25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:A2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:A2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:A2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2122,23 +2105,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.46484375" customWidth="1"/>
-    <col min="3" max="3" width="21.46484375" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="25.86328125" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2149,21 +2132,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="84" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="84" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2174,16 +2157,16 @@
         <v>4</v>
       </c>
       <c r="F4" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G4" s="6">
         <v>100</v>
       </c>
       <c r="H4" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -2194,7 +2177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -2205,7 +2188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -2216,7 +2199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -2227,7 +2210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -2238,7 +2221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -2249,7 +2232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -2260,7 +2243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -2271,7 +2254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -2282,7 +2265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -2293,7 +2276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -2304,7 +2287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -2315,7 +2298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -2326,7 +2309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -2337,7 +2320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -2348,7 +2331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -2359,7 +2342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -2370,7 +2353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -2381,7 +2364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -2400,33 +2383,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.53125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.19921875" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -2435,9 +2418,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -2446,12 +2429,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -2460,9 +2443,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -2471,9 +2454,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -2482,9 +2465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
@@ -2493,9 +2476,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -2504,9 +2487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="7">
         <v>0</v>
@@ -2515,9 +2498,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -2526,86 +2509,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="14">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7">
         <v>0</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" s="13" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" s="13" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
-        <v>38</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2619,21 +2591,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.46484375" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
